--- a/ThreadProgrammingCheckList320.xlsx
+++ b/ThreadProgrammingCheckList320.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e4d3e54824fd230/Documents/GitHub/gr_checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="353" documentId="11_F25DC773A252ABDACC10481B191C69985BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{955656E3-2EC5-4AEA-9878-D8F5208A4445}"/>
+  <xr:revisionPtr revIDLastSave="359" documentId="11_F25DC773A252ABDACC10481B191C69985BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C8B98E8-EB35-4BDF-86CE-A96AC30F44C9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9928,6 +9928,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10248,7 +10252,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/ThreadProgrammingCheckList320.xlsx
+++ b/ThreadProgrammingCheckList320.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="420" documentId="11_F25DC773A252ABDACC10481B191C69985BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96491E95-BC23-4323-B7D6-9B0CC058BF34}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-18135" windowWidth="29070" windowHeight="18270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-18000" windowWidth="14610" windowHeight="18105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="2" r:id="rId1"/>
@@ -15264,7 +15264,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
